--- a/docs/scripts/2022/11/1118 Unclimbed Peak.xlsx
+++ b/docs/scripts/2022/11/1118 Unclimbed Peak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankwu/coding/life/live-in-the-world/docs/scripts/2022/11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED09562F-42D4-4A45-9D9B-36CF2FFCBA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528A6E00-D477-614B-A236-75DA2CFE175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>备注</t>
   </si>
@@ -52,55 +52,91 @@
     <t>首先要做的就是考察</t>
   </si>
   <si>
-    <t>找到一条合适的路线</t>
-  </si>
-  <si>
-    <t>人物指着山峰的岩壁，</t>
-  </si>
-  <si>
-    <t>并且衡量它的可攀型</t>
-  </si>
-  <si>
-    <t>人物盯着路线图</t>
-  </si>
-  <si>
-    <t>其次是查好天气</t>
-  </si>
-  <si>
-    <t>人物打开电脑查看天气</t>
-  </si>
-  <si>
-    <t>找好天气窗口</t>
-  </si>
-  <si>
-    <t>手指指着天气晴朗的几天</t>
-  </si>
-  <si>
-    <t>最后就是将需要的装备准备好</t>
-  </si>
-  <si>
-    <t>装备摊在地上</t>
-  </si>
-  <si>
-    <t>抓绒帽、冲锋衣、冲锋裤、厚羽绒、高山靴</t>
-  </si>
-  <si>
-    <t>逐次穿上mont-x + 7000gt/从上到下展示人物</t>
-  </si>
-  <si>
-    <t>头盔、安全带、技术镐、快挂、冲锋背包</t>
-  </si>
-  <si>
     <t>逐次展示装备</t>
   </si>
   <si>
-    <t>科学攀登，安全回家</t>
-  </si>
-  <si>
-    <t>看到这座山峰没有，这是一座未登峰，就是还没有人爬过的</t>
-  </si>
-  <si>
-    <t>因为没人爬过，所以一点信息没有，如果你要去攀爬它</t>
+    <t>对于每一个攀登者来说，都有着一个攀登未登峰的梦想</t>
+  </si>
+  <si>
+    <t>看到这座山峰没有，这是一座未登峰，也就是尚未被人踏足的山峰</t>
+  </si>
+  <si>
+    <t>而要去攀爬它，你需要做好十足的准备</t>
+  </si>
+  <si>
+    <t>因为它和普通的商业山峰不一样</t>
+  </si>
+  <si>
+    <t>路线，地形，地貌，都是未知</t>
+  </si>
+  <si>
+    <t>找到一条可以进行攀登的路线</t>
+  </si>
+  <si>
+    <t>其次就是是查好天气</t>
+  </si>
+  <si>
+    <t>需要找到连续几天好的天气窗口</t>
+  </si>
+  <si>
+    <t>因为目前没有下雪，</t>
+  </si>
+  <si>
+    <t>就可以开始攀登了</t>
+  </si>
+  <si>
+    <t>我们到顶了！！！</t>
+  </si>
+  <si>
+    <t>给想要尝试的小伙伴一个建议，一定要做好充分的准备再去尝试未登峰～</t>
+  </si>
+  <si>
+    <t>科学攀登，平安下撤～</t>
+  </si>
+  <si>
+    <t>迄今为止就只有我和搭档看到过这里的风景！太美了！</t>
+  </si>
+  <si>
+    <t>然后准备好需要的装备</t>
+  </si>
+  <si>
+    <t>所以带上机械塞，扁带，头盔， 安全带，快挂，冲锋背包这些（快速阅读+块切）</t>
+  </si>
+  <si>
+    <t>放飞无人机</t>
+  </si>
+  <si>
+    <t>人物看着山峰的岩壁，</t>
+  </si>
+  <si>
+    <t>岩壁特写</t>
+  </si>
+  <si>
+    <t>人物指着图片观察</t>
+  </si>
+  <si>
+    <t>电脑查看天气</t>
+  </si>
+  <si>
+    <t>人物指着天气网站</t>
+  </si>
+  <si>
+    <t>快速展示装备</t>
+  </si>
+  <si>
+    <t>人物背上装备的画面</t>
+  </si>
+  <si>
+    <t>顶峰画面</t>
+  </si>
+  <si>
+    <t>无人机环绕/手持兴奋的画面</t>
+  </si>
+  <si>
+    <t>山峰环绕画面</t>
+  </si>
+  <si>
+    <t>下撤画面</t>
   </si>
 </sst>
 </file>
@@ -116,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,12 +162,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,62 +260,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +577,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
+      <selection activeCell="F22" sqref="F22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -580,17 +592,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -598,292 +610,328 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="12" t="s">
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18" t="s">
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="B7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="F19:H19"/>
@@ -891,6 +939,7 @@
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:E17"/>
